--- a/개인프로젝트_산출물/3.구현및시험단계/지하철혼잡도시스템_체크리스트(20170365 나재현).xlsx
+++ b/개인프로젝트_산출물/3.구현및시험단계/지하철혼잡도시스템_체크리스트(20170365 나재현).xlsx
@@ -3,17 +3,17 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
   <workbookPr filterPrivacy="1" codeName="현재_통합_문서"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DEFDC32-AED4-4C58-B979-0EE8E6485319}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29B14FB5-B621-4AEA-B4EE-9A24F6599CE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="구현단계" sheetId="1" r:id="rId1"/>
     <sheet name="시험단계" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">구현단계!$A$1:$F$19</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">시험단계!$A$1:$F$19</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">구현단계!$A$1:$F$17</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">시험단계!$A$1:$F$17</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="50">
   <si>
     <t>비즈니스</t>
   </si>
@@ -74,13 +74,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>-이슈 없음</t>
-  </si>
-  <si>
-    <t>-이슈 없음</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>현재 구현 진행률</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -130,9 +123,6 @@
   </si>
   <si>
     <t>즐겨찾기</t>
-  </si>
-  <si>
-    <t>즐겨찾기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -156,23 +146,13 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>StationService.java</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>노선도</t>
   </si>
   <si>
     <t>이력관리</t>
   </si>
   <si>
-    <t>검색이력</t>
-  </si>
-  <si>
     <t>로그인이력</t>
-  </si>
-  <si>
-    <t>검색 저장</t>
   </si>
   <si>
     <t>-도착역과 출발역을 입력받고 api를 호출하여 사이 경로를 모두 출력</t>
@@ -213,10 +193,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>-페이지 구현x</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>-역들의 배열을 입력받아 해당 시간의 해당열차의 혼잡도를 출력</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -235,11 +211,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>-로그인시 회원정보를 기록하고, 테이블로 출력가능</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>회원 탈퇴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인 이력 저장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SearchLogController.java
+SearchLogService.java
+searchLog.js</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BookmarkController.java
+BookmarkService.java
+Bookmark.js</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-이상없음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>검색순위</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>검색 순위</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -500,7 +500,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -511,27 +511,15 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -541,12 +529,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="6" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -556,68 +538,80 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="176" fontId="6" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -897,307 +891,291 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12:C13"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="8" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.125" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.625" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.375" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7" style="8" customWidth="1"/>
-    <col min="6" max="6" width="57.25" style="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="8"/>
+    <col min="1" max="1" width="8" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.09765625" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.59765625" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.3984375" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7" style="5" customWidth="1"/>
+    <col min="6" max="6" width="57.19921875" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-    </row>
-    <row r="2" spans="1:6" ht="6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="11"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-    </row>
-    <row r="3" spans="1:6" s="13" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="27"/>
-      <c r="C3" s="16">
-        <f>AVERAGE(E7:E19)</f>
-        <v>0.51538461538461544</v>
-      </c>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-    </row>
-    <row r="4" spans="1:6" ht="6" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="30" x14ac:dyDescent="0.4">
+      <c r="A1" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+    </row>
+    <row r="2" spans="1:6" ht="6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+    </row>
+    <row r="3" spans="1:6" s="9" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="22"/>
+      <c r="C3" s="10">
+        <f>AVERAGE(E7:E17)</f>
+        <v>0.95454545454545459</v>
+      </c>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+    </row>
+    <row r="4" spans="1:6" ht="6" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="5" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="25" t="s">
+      <c r="C5" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="26"/>
-      <c r="E5" s="28" t="s">
+      <c r="D5" s="21"/>
+      <c r="E5" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="28"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F5" s="23"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="30"/>
+      <c r="B6" s="25"/>
       <c r="C6" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="33" t="s">
+    <row r="7" spans="1:6" ht="46.8" x14ac:dyDescent="0.4">
+      <c r="A7" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="15">
+        <v>1</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="46.8" x14ac:dyDescent="0.4">
+      <c r="A8" s="26"/>
+      <c r="B8" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="15">
+        <v>1</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="26"/>
+      <c r="B9" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="18" t="s">
+      <c r="C9" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="15">
+        <v>1</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="46.8" x14ac:dyDescent="0.4">
+      <c r="A10" s="26"/>
+      <c r="B10" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" s="15">
+        <v>1</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="46.8" x14ac:dyDescent="0.4">
+      <c r="A11" s="18"/>
+      <c r="B11" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="E7" s="34">
-        <v>1</v>
-      </c>
-      <c r="F7" s="17" t="s">
+      <c r="D11" s="12" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="35"/>
-      <c r="B8" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="18" t="s">
+      <c r="E11" s="15">
+        <v>1</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="15">
+        <v>1</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="A13" s="26"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="15">
+        <v>1</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="46.8" x14ac:dyDescent="0.4">
+      <c r="A14" s="26"/>
+      <c r="B14" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E14" s="15">
+        <v>1</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="18"/>
+      <c r="B15" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E15" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="46.8" x14ac:dyDescent="0.4">
+      <c r="A16" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="E16" s="15">
+        <v>1</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="46.8" x14ac:dyDescent="0.4">
+      <c r="A17" s="18"/>
+      <c r="B17" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="E8" s="34">
-        <v>1</v>
-      </c>
-      <c r="F8" s="17" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="35"/>
-      <c r="B9" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="E9" s="34">
-        <v>1</v>
-      </c>
-      <c r="F9" s="17" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A10" s="35"/>
-      <c r="B10" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="E10" s="34">
-        <v>0.5</v>
-      </c>
-      <c r="F10" s="17" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A11" s="36"/>
-      <c r="B11" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="D11" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="E11" s="34">
-        <v>0</v>
-      </c>
-      <c r="F11" s="17" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="E12" s="34">
-        <v>1</v>
-      </c>
-      <c r="F12" s="23" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="35"/>
-      <c r="B13" s="36"/>
-      <c r="C13" s="36"/>
-      <c r="D13" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="E13" s="34">
-        <v>1</v>
-      </c>
-      <c r="F13" s="23" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="35"/>
-      <c r="B14" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="D14" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="E14" s="34">
-        <v>0</v>
-      </c>
-      <c r="F14" s="17" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="36"/>
-      <c r="B15" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="D15" s="18" t="s">
+      <c r="E17" s="15">
+        <v>1</v>
+      </c>
+      <c r="F17" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="E15" s="34">
-        <v>0.5</v>
-      </c>
-      <c r="F15" s="17" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="33" t="s">
-        <v>33</v>
-      </c>
-      <c r="B16" s="37" t="s">
-        <v>34</v>
-      </c>
-      <c r="C16" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" s="18"/>
-      <c r="E16" s="34">
-        <v>0</v>
-      </c>
-      <c r="F16" s="17" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A17" s="36"/>
-      <c r="B17" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="C17" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="D17" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="E17" s="34">
-        <v>0.7</v>
-      </c>
-      <c r="F17" s="17" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="18"/>
-      <c r="B18" s="18"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="34">
-        <v>0</v>
-      </c>
-      <c r="F18" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="18"/>
-      <c r="B19" s="18"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="34">
-        <v>0</v>
-      </c>
-      <c r="F19" s="10" t="s">
-        <v>10</v>
-      </c>
+    </row>
+    <row r="18" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D18" s="5"/>
+    </row>
+    <row r="19" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D19" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -1213,6 +1191,11 @@
     <mergeCell ref="A12:A15"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="E7:E17">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.17" right="0.17" top="0.37" bottom="0.35" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="landscape" verticalDpi="0" r:id="rId1"/>
@@ -1225,244 +1208,299 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F1"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="8" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.125" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.625" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.375" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7" style="8" customWidth="1"/>
-    <col min="6" max="6" width="42.25" style="8" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="8"/>
+    <col min="1" max="1" width="8" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.09765625" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.59765625" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.3984375" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7" style="5" customWidth="1"/>
+    <col min="6" max="6" width="42.19921875" style="5" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-    </row>
-    <row r="2" spans="1:6" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="11"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-    </row>
-    <row r="3" spans="1:6" s="13" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="31" t="s">
+    <row r="1" spans="1:6" ht="30" x14ac:dyDescent="0.4">
+      <c r="A1" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+    </row>
+    <row r="2" spans="1:6" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+    </row>
+    <row r="3" spans="1:6" s="9" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="32"/>
-      <c r="C3" s="22">
-        <f>AVERAGE(E7:E19)</f>
-        <v>0</v>
-      </c>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-    </row>
-    <row r="4" spans="1:6" ht="6" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="28"/>
+      <c r="C3" s="13">
+        <f>AVERAGE(E7:E17)</f>
+        <v>1</v>
+      </c>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+    </row>
+    <row r="4" spans="1:6" ht="6" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="5" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="25" t="s">
+      <c r="C5" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="26"/>
-      <c r="E5" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="28"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D5" s="21"/>
+      <c r="E5" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="23"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="30"/>
+      <c r="B6" s="25"/>
       <c r="C6" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="18"/>
-      <c r="B7" s="18"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="7"/>
+    <row r="7" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>37</v>
+      </c>
       <c r="E7" s="15">
-        <v>0</v>
-      </c>
-      <c r="F7" s="17" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="18"/>
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="26"/>
+      <c r="B8" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>36</v>
+      </c>
       <c r="E8" s="15">
-        <v>0</v>
-      </c>
-      <c r="F8" s="17" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="18"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="26"/>
+      <c r="B9" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>35</v>
+      </c>
       <c r="E9" s="15">
-        <v>0</v>
-      </c>
-      <c r="F9" s="17" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="18"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="26"/>
+      <c r="B10" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>38</v>
+      </c>
       <c r="E10" s="15">
-        <v>0</v>
-      </c>
-      <c r="F10" s="17" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="18"/>
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="7"/>
+      <c r="B11" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>38</v>
+      </c>
       <c r="E11" s="15">
-        <v>0</v>
-      </c>
-      <c r="F11" s="17" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="18"/>
-      <c r="B12" s="18"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>25</v>
+      </c>
       <c r="E12" s="15">
-        <v>0</v>
-      </c>
-      <c r="F12" s="17" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="18"/>
+        <v>1</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="26"/>
       <c r="B13" s="18"/>
       <c r="C13" s="18"/>
-      <c r="D13" s="7"/>
+      <c r="D13" s="12" t="s">
+        <v>26</v>
+      </c>
       <c r="E13" s="15">
-        <v>0</v>
-      </c>
-      <c r="F13" s="17" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="18"/>
-      <c r="B14" s="18"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="26"/>
+      <c r="B14" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>46</v>
+      </c>
       <c r="E14" s="15">
-        <v>0</v>
-      </c>
-      <c r="F14" s="17" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="18"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="7"/>
+      <c r="B15" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>40</v>
+      </c>
       <c r="E15" s="15">
-        <v>0</v>
-      </c>
-      <c r="F15" s="17" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="18"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>45</v>
+      </c>
       <c r="E16" s="15">
-        <v>0</v>
-      </c>
-      <c r="F16" s="17" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="19"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="14"/>
+        <v>1</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="18"/>
+      <c r="B17" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>42</v>
+      </c>
       <c r="E17" s="15">
-        <v>0</v>
-      </c>
-      <c r="F17" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="18"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="15">
-        <v>0</v>
-      </c>
-      <c r="F18" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="18"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="15">
-        <v>0</v>
-      </c>
-      <c r="F19" s="10" t="s">
-        <v>10</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D18" s="5"/>
+    </row>
+    <row r="19" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D19" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="10">
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="A16:A17"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="B5:B6"/>
@@ -1470,6 +1508,11 @@
     <mergeCell ref="E5:F5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="E7:E17">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.17" right="0.17" top="0.34" bottom="0.35" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="landscape" verticalDpi="0" r:id="rId1"/>
